--- a/General Retail/KSS_MODEL.xlsx
+++ b/General Retail/KSS_MODEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\General Retail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B1B245-1A06-4E22-8FFF-FFCBA0105876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C8770-865B-48E8-BC09-CCB6D6FA2BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Price</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Declared 0.125 dividend</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,14 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -386,7 +381,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -395,37 +405,17 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -456,31 +446,28 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -512,8 +499,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1113,326 +1100,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>3715</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <v>4087</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>4277</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>6019</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="10">
         <v>3571</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10">
         <v>3895</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="10">
         <v>4054</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>5956</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="10">
         <v>3178</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>3525</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>3507</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="3">
         <v>5175</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>3049</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <f>M3 * 0.93</f>
         <v>3278.25</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <f>N3 * 0.93</f>
         <v>3261.51</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="3">
         <f>O3 * 0.93</f>
         <v>4812.75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10">
         <v>204</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>207</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>203</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="3">
         <v>222</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>183</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>180</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>180</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="3"/>
-      <c r="O5" s="19"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="O5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8">
+      <c r="C6" s="12"/>
+      <c r="D6" s="4">
         <f t="shared" ref="D6:M6" si="0" xml:space="preserve"> D3 + D4</f>
         <v>3715</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>4087</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>4277</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>6019</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>3571</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>3895</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>4054</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>5956</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>3382</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>3732</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="4">
         <f xml:space="preserve"> N3 + N4</f>
         <v>3710</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="4">
         <f t="shared" ref="O6:S6" si="1" xml:space="preserve"> O3 + O4</f>
         <v>5397</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="4">
         <f t="shared" si="1"/>
         <v>3232</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="4">
         <f t="shared" si="1"/>
         <v>3458.25</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="4">
         <f t="shared" si="1"/>
         <v>3441.51</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="4">
         <f t="shared" si="1"/>
         <v>4992.75</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9">
+      <c r="C7" s="10"/>
+      <c r="D7" s="13">
         <v>2140</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="13">
         <v>2332</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>2541</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>4444</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="13">
         <v>2047</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="13">
         <v>2242</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="13">
         <v>2349</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>3860</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="13">
         <v>1923</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="13">
         <v>2128</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="13">
         <v>2137</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="3">
         <v>3473</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="13">
         <v>1834</v>
       </c>
-      <c r="S7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="10">
+      <c r="C8" s="10"/>
+      <c r="D8" s="15">
         <f t="shared" ref="D8:K8" si="2" xml:space="preserve"> D6 - D7</f>
         <v>1575</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="15">
         <f t="shared" si="2"/>
         <v>1755</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="15">
         <f t="shared" si="2"/>
         <v>1736</v>
       </c>
@@ -1440,15 +1432,15 @@
         <f t="shared" si="2"/>
         <v>1575</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>1524</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
         <v>1653</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="15">
         <f t="shared" si="2"/>
         <v>1705</v>
       </c>
@@ -1456,748 +1448,827 @@
         <f t="shared" si="2"/>
         <v>2096</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="15">
         <f xml:space="preserve"> L6 - L7</f>
         <v>1459</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="15">
         <f t="shared" ref="M8:P8" si="3" xml:space="preserve"> M6 - M7</f>
         <v>1604</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="15">
         <f t="shared" si="3"/>
         <v>1573</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="15">
         <f t="shared" si="3"/>
         <v>1924</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="15">
         <f t="shared" si="3"/>
         <v>1398</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="12">
+      <c r="C9" s="10"/>
+      <c r="D9" s="13">
         <v>1293</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>1283</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>1334</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>1677</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>1238</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <v>1304</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="13">
         <v>1360</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <v>1610</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <v>1228</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>1250</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <v>1291</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="3">
         <v>1539</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="13">
         <v>1164</v>
       </c>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="12">
+      <c r="C10" s="10"/>
+      <c r="D10" s="13">
         <v>1493</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>1489</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>1536</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>1877</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>1426</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="13">
         <v>1490</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="13">
         <v>1548</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>1797</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="13">
         <v>1416</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>1438</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="13">
         <v>1475</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="S10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="O10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10">
+      <c r="C11" s="10"/>
+      <c r="D11" s="15">
         <v>82</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="15">
         <v>266</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="15">
         <v>200</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="15">
         <v>-302</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="15">
         <v>98</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="15">
         <v>163</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="15">
         <v>157</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="15">
         <v>299</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="15">
         <v>43</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="15">
         <v>166</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="15">
         <v>98</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="3">
         <v>126</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="15">
         <v>60</v>
       </c>
-      <c r="S11" s="19"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>-68</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>-77</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="13">
         <v>-81</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>-78</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="13">
         <v>-84</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="13">
         <v>-89</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="13">
         <v>-89</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="13">
         <v>-82</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="13">
         <v>-83</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="13">
         <v>-86</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="13">
         <v>-76</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="3">
         <v>-74</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="13">
         <v>-76</v>
       </c>
-      <c r="S12" s="19"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="13">
         <v>14</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>189</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="13">
         <v>119</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>-380</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="13">
         <v>14</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="13">
         <v>74</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="13">
         <v>68</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="13">
         <v>217</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="13">
         <v>-40</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="13">
         <v>80</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="13">
         <v>22</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="3">
         <v>52</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="13">
         <v>-16</v>
       </c>
-      <c r="S13" s="19"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>46</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>22</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>-107</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="13">
         <v>16</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="13">
         <v>9</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="13">
         <v>31</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="13">
         <v>-13</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="13">
         <v>14</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="13">
         <v>0</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="3">
         <v>4</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="13">
         <v>-1</v>
       </c>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
         <f xml:space="preserve"> D13 - D14</f>
         <v>14</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <f t="shared" ref="E15:P15" si="4" xml:space="preserve"> E13 - E14</f>
         <v>143</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="10">
         <f t="shared" si="4"/>
         <v>-273</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="10">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="10">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="10">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="10">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="10">
         <f t="shared" si="4"/>
         <v>-27</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="10">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="10">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="10">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="10">
         <f t="shared" si="4"/>
         <v>-15</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="13"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="5">
+      <c r="H16" s="17">
         <f xml:space="preserve"> H15/H17</f>
         <v>0.12612612612612611</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="17">
         <f t="shared" ref="I16:P16" si="5" xml:space="preserve"> I15/I17</f>
         <v>0.52252252252252251</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="17">
         <f t="shared" si="5"/>
         <v>0.53153153153153154</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="17">
         <f t="shared" si="5"/>
         <v>1.6756756756756757</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="17">
         <f t="shared" si="5"/>
         <v>-0.24324324324324326</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="17">
         <f t="shared" si="5"/>
         <v>0.59459459459459463</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="17">
         <f t="shared" si="5"/>
         <v>0.1981981981981982</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="17">
         <f t="shared" si="5"/>
         <v>0.43243243243243246</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="17">
         <f t="shared" si="5"/>
         <v>-0.13513513513513514</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="18"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="3">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10">
         <v>111</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="10">
         <v>111</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="10">
         <v>111</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <v>111</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="10">
         <v>111</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="13">
         <v>111</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="13">
         <v>111</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="3">
         <v>111</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="13">
         <v>111</v>
       </c>
-      <c r="S17" s="19"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S18" s="19"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <f t="shared" ref="H19:L19" si="6" xml:space="preserve"> H6 / D6 - 1</f>
         <v>-3.8761776581426655E-2</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="6">
         <f t="shared" si="6"/>
         <v>-4.6978223635918748E-2</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="6">
         <f t="shared" si="6"/>
         <v>-5.2139350011690455E-2</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="6">
         <f t="shared" si="6"/>
         <v>-1.0466854959295557E-2</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="6">
         <f t="shared" si="6"/>
         <v>-5.2926351162139507E-2</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="6">
         <f xml:space="preserve"> M6 / I6 - 1</f>
         <v>-4.1848523748395428E-2</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="6">
         <f xml:space="preserve"> N6 / J6 - 1</f>
         <v>-8.4854464726196399E-2</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="6">
         <f xml:space="preserve"> O6 / K6 - 1</f>
         <v>-9.385493619879115E-2</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="6">
         <f xml:space="preserve"> P6 / L6 - 1</f>
         <v>-4.4352454169130695E-2</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="6">
         <f t="shared" ref="Q19:S19" si="7" xml:space="preserve"> Q6 / M6 - 1</f>
         <v>-7.3352090032154371E-2</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="6">
         <f t="shared" si="7"/>
         <v>-7.2369272237196691E-2</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="6">
         <f t="shared" si="7"/>
         <v>-7.4902723735408516E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="12">
+      <c r="C21" s="10"/>
+      <c r="D21" s="13">
         <v>-460</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>-86</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="13">
         <v>121</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="13">
         <v>707</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <v>-202</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="13">
         <v>430</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="13">
         <v>151</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="13">
         <v>789</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="13">
         <v>-7</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="13">
         <v>254</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="13">
         <v>-195</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="13">
         <v>596</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="13">
         <v>-92</v>
       </c>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="12">
+      <c r="C22" s="10"/>
+      <c r="D22" s="13">
         <v>-221</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="13">
         <v>-327</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="13">
         <v>-185</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <v>-93</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>-94</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <v>-244</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="13">
         <v>-157</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <v>-82</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="13">
         <v>-126</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="13">
         <v>-113</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="13">
         <v>-128</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="13">
         <v>-99</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="13">
         <v>-110</v>
       </c>
-      <c r="S22" s="19"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
         <f>D21+D22</f>
         <v>-681</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="10">
         <f t="shared" ref="E23:P23" si="8">E21+E22</f>
         <v>-413</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="10">
         <f t="shared" si="8"/>
         <v>-64</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="10">
         <f t="shared" si="8"/>
         <v>614</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="10">
         <f t="shared" si="8"/>
         <v>-296</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="10">
         <f t="shared" si="8"/>
         <v>186</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="10">
         <f t="shared" si="8"/>
         <v>-6</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="10">
         <f t="shared" si="8"/>
         <v>707</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="10">
         <f t="shared" si="8"/>
         <v>-133</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="10">
         <f t="shared" si="8"/>
         <v>141</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="10">
         <f t="shared" si="8"/>
         <v>-323</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="10">
         <f t="shared" si="8"/>
         <v>497</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="10">
         <f t="shared" si="8"/>
         <v>-202</v>
       </c>
-      <c r="S23" s="19"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="13">
         <v>-63</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="13">
         <v>-64</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="13">
         <v>-57</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="13">
         <v>-55</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <v>-55</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="13">
         <v>-55</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="13">
         <v>-55</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <v>-55</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="13">
         <v>-55</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="13">
         <v>-56</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="13">
         <v>-55</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="13">
         <v>-14</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="13">
         <v>-14</v>
       </c>
-      <c r="S24" s="19"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="S24" s="3"/>
+    </row>
+    <row r="27" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="K27" s="21">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O28" t="s">
+      <c r="D27" s="6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M28" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="O29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="P29" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="P30" t="s">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P31" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="P31" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P32" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="P32" t="s">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" t="s">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2387,18 +2458,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,6 +2491,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -2433,12 +2512,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/General Retail/KSS_MODEL.xlsx
+++ b/General Retail/KSS_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\General Retail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C8770-865B-48E8-BC09-CCB6D6FA2BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D83EF-9A83-414A-9C7E-F8D0BFC9B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Price</t>
   </si>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Guidance of -4 to -5%</t>
+  </si>
+  <si>
+    <t>0.50 to 0.80 EPS</t>
+  </si>
+  <si>
+    <t>400 Capex</t>
   </si>
 </sst>
 </file>
@@ -352,13 +364,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,29 +463,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1102,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1225,12 +1245,11 @@
         <v>3049</v>
       </c>
       <c r="Q3" s="2">
-        <f>M3 * 0.93</f>
-        <v>3278.25</v>
+        <v>3347</v>
       </c>
       <c r="R3" s="2">
-        <f>N3 * 0.93</f>
-        <v>3261.51</v>
+        <f>N3 * 0.945</f>
+        <v>3314.1149999999998</v>
       </c>
       <c r="S3" s="3">
         <f>O3 * 0.93</f>
@@ -1267,7 +1286,7 @@
         <v>183</v>
       </c>
       <c r="Q4" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="R4" s="2">
         <v>180</v>
@@ -1351,12 +1370,11 @@
         <v>3232</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="1"/>
-        <v>3458.25</v>
+        <v>3546</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="1"/>
-        <v>3441.51</v>
+        <v>3494.1149999999998</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="1"/>
@@ -1408,6 +1426,9 @@
       <c r="P7" s="13">
         <v>1834</v>
       </c>
+      <c r="Q7" s="2">
+        <v>2011</v>
+      </c>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -1453,7 +1474,7 @@
         <v>1459</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" ref="M8:P8" si="3" xml:space="preserve"> M6 - M7</f>
+        <f t="shared" ref="M8:Q8" si="3" xml:space="preserve"> M6 - M7</f>
         <v>1604</v>
       </c>
       <c r="N8" s="15">
@@ -1468,7 +1489,10 @@
         <f t="shared" si="3"/>
         <v>1398</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="15">
+        <f t="shared" si="3"/>
+        <v>1535</v>
+      </c>
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
@@ -1517,6 +1541,9 @@
       <c r="P9" s="13">
         <v>1164</v>
       </c>
+      <c r="Q9" s="2">
+        <v>1199</v>
+      </c>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1606,6 +1633,9 @@
       <c r="P11" s="15">
         <v>60</v>
       </c>
+      <c r="Q11" s="2">
+        <v>279</v>
+      </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1651,6 +1681,9 @@
       <c r="P12" s="13">
         <v>-76</v>
       </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1697,6 +1730,9 @@
       <c r="P13" s="13">
         <v>-16</v>
       </c>
+      <c r="Q13" s="2">
+        <v>201</v>
+      </c>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -1741,6 +1777,9 @@
       </c>
       <c r="P14" s="13">
         <v>-1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>48</v>
       </c>
       <c r="S14" s="3"/>
     </row>
@@ -1801,7 +1840,9 @@
         <f t="shared" si="4"/>
         <v>-15</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="10">
+        <v>153</v>
+      </c>
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
     </row>
@@ -1850,7 +1891,9 @@
         <f t="shared" si="5"/>
         <v>-0.13513513513513514</v>
       </c>
-      <c r="Q16" s="17"/>
+      <c r="Q16" s="17">
+        <v>1.37</v>
+      </c>
       <c r="R16" s="17"/>
       <c r="S16" s="18"/>
     </row>
@@ -1890,6 +1933,9 @@
       <c r="P17" s="13">
         <v>111</v>
       </c>
+      <c r="Q17" s="2">
+        <v>112</v>
+      </c>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -1941,11 +1987,11 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" ref="Q19:S19" si="7" xml:space="preserve"> Q6 / M6 - 1</f>
-        <v>-7.3352090032154371E-2</v>
+        <v>-4.9839228295819882E-2</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="7"/>
-        <v>-7.2369272237196691E-2</v>
+        <v>-5.8190026954177965E-2</v>
       </c>
       <c r="S19" s="6">
         <f t="shared" si="7"/>
@@ -2194,6 +2240,9 @@
       <c r="P27" s="6">
         <v>0.43</v>
       </c>
+      <c r="Q27" s="6">
+        <v>0.39900000000000002</v>
+      </c>
     </row>
     <row r="28" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
@@ -2246,20 +2295,32 @@
       <c r="P29" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="Q29" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="P30" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="Q30" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="P31" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="Q31" s="19" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="P32" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="16:16" x14ac:dyDescent="0.2">
@@ -2314,6 +2375,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -2457,22 +2533,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2488,28 +2573,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>